--- a/src/var/students.xlsx
+++ b/src/var/students.xlsx
@@ -1,75 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Student Number</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>First Name</t>
   </si>
   <si>
-    <t>program</t>
+    <t>Last Name</t>
   </si>
   <si>
-    <t>Juan Marti</t>
+    <t>Gender</t>
   </si>
   <si>
-    <t>E44id</t>
+    <t>Nationality</t>
   </si>
   <si>
-    <t>Vellum Kenwood</t>
+    <t>Year Of Study</t>
   </si>
   <si>
-    <t>DE453</t>
+    <t>Mode Of Study</t>
   </si>
   <si>
-    <t>Kearny Droud</t>
+    <t>Programme Code</t>
   </si>
   <si>
-    <t>GD33456</t>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Address Line 3</t>
+  </si>
+  <si>
+    <t>Address Line 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,14 +87,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,140 +111,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -253,29 +135,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -401,7 +334,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -410,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -419,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -483,8 +416,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -492,7 +425,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -500,7 +433,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -519,7 +452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -527,7 +460,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -555,7 +488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +709,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -795,7 +734,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +857,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +883,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +909,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +935,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +961,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +987,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1000,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,7 +1022,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,118 +1292,90 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="20.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="5">
-        <v>323243242</v>
-      </c>
-      <c r="B3" t="s" s="6">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="9">
-        <v>938123092121</v>
-      </c>
-      <c r="B4" t="s" s="10">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="9">
-        <v>423424265</v>
-      </c>
-      <c r="B5" t="s" s="10">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>